--- a/utility_code/readability_evaluation/Campaign Generator (Evaluation)/Library Level/TF Word.xlsx
+++ b/utility_code/readability_evaluation/Campaign Generator (Evaluation)/Library Level/TF Word.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="160">
   <si>
     <t>id</t>
   </si>
@@ -31,505 +31,466 @@
     <t>relevance (R/I)</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>great rates. your rock all-inclusive lisbon hotel in stamford, de perth no reservation</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>save on hotels in montreal. best price guarantee! day trip silverwater american getaway</t>
+  </si>
+  <si>
+    <t>grand</t>
+  </si>
+  <si>
+    <t>grand the san antonio center. book great rates from san francisco, all-inclusive station</t>
+  </si>
+  <si>
+    <t>texas</t>
+  </si>
+  <si>
+    <t>texas hotel telford, telford. no reservation costs. great rates. best rates on sultanahmet</t>
+  </si>
+  <si>
+    <t>guarantee</t>
+  </si>
+  <si>
+    <t>guarantee book at the crown, pacific resort now. save up to 50% on</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>free lincoln shores ny book reservation great rates save big on this detroit,</t>
+  </si>
+  <si>
+    <t>golden</t>
+  </si>
+  <si>
+    <t>golden canova online. no reservation costs. great rates. luxury harbour hotel with 2</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>book rentals in worcester online book your hotel in port rose fl online.</t>
+  </si>
+  <si>
+    <t>resorts.</t>
+  </si>
+  <si>
+    <t>resorts. book your hotel online. find and compare exclusive deals on hotels on</t>
+  </si>
+  <si>
+    <t>online.</t>
+  </si>
+  <si>
+    <t>online. no reservation costs. great rates. save on your business congress airport hotels</t>
+  </si>
+  <si>
+    <t>hull</t>
+  </si>
+  <si>
+    <t>hull book at hotel oudaya, canary florida. no reservation costs. great rates. best</t>
+  </si>
+  <si>
+    <t>save on hotels in kuala chang. no reservation costs. great rates. best rates</t>
+  </si>
+  <si>
+    <t>great rates. hotel with lavish green river, portland. beach resort - spa -</t>
+  </si>
+  <si>
+    <t>rates.</t>
+  </si>
+  <si>
+    <t>rates. book a hotel near san angeles beach, chiang lucia car rental delhi</t>
+  </si>
+  <si>
+    <t>shuttle</t>
+  </si>
+  <si>
+    <t>shuttle and save big! book a motel in la paz, bolivia. no reservation</t>
+  </si>
+  <si>
+    <t>airport,</t>
+  </si>
+  <si>
+    <t>airport, tokyo. no reservation costs. great rates. book at over tampa, fl hotels.</t>
+  </si>
+  <si>
+    <t>save on cheap hotels in taormina, nh md online. no reservation costs. great</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>big book at great split central, hong kong. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>choices,</t>
+  </si>
+  <si>
+    <t>choices, save on hotels in kansas city, wi. book at perfect hotel. dan</t>
+  </si>
+  <si>
+    <t>rarotonga.</t>
+  </si>
+  <si>
+    <t>rarotonga. boston book at hotel palym, paris. no reservation costs. great rates. book</t>
+  </si>
+  <si>
+    <t>coupon</t>
+  </si>
+  <si>
+    <t>coupon book kata resort with 4 beach island. free nearby beach, paris hotel.</t>
+  </si>
+  <si>
+    <t>hotels</t>
+  </si>
+  <si>
+    <t>hotels in singapore. no reservation costs. great rates. save big on this south</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>hotel in plymouth meeting de. best price guarantee! lowest price guarantee! book at</t>
+  </si>
+  <si>
+    <t>book online. best rates or refund + $50 coupon. book your trip to</t>
+  </si>
+  <si>
+    <t>full-service</t>
+  </si>
+  <si>
+    <t>full-service hotel telford, telford. no reservation costs. great rates. best rates or refund</t>
+  </si>
+  <si>
+    <t>dublin</t>
+  </si>
+  <si>
+    <t>dublin austin save book your 5-star hotel today! find and compare exclusive deals</t>
+  </si>
+  <si>
+    <t>prices,</t>
+  </si>
+  <si>
+    <t>prices, co view package deals. best rates or refund + $50 coupon. duangtawan</t>
+  </si>
+  <si>
+    <t>hotels in online. no reservation costs. great rates. save on your christmas vacation!.</t>
+  </si>
+  <si>
+    <t>great up resort in camp padre island and save big! find your great</t>
+  </si>
+  <si>
+    <t>costs.</t>
+  </si>
+  <si>
+    <t>costs. package to new on. save on your fallsview village orlando hotels book</t>
+  </si>
+  <si>
+    <t>best prices</t>
+  </si>
+  <si>
+    <t>best prices on this agra hotel. drury inn &amp; resort, karavomylos. no reservation costs.</t>
+  </si>
+  <si>
+    <t>great ocean lane beach, phuket coast hotel by antilles beach. family-friendly family-friendly hotel,</t>
+  </si>
+  <si>
+    <t>georges</t>
+  </si>
+  <si>
+    <t>georges half-price on hotel in new orleans, 2 save on your reservation. book</t>
+  </si>
+  <si>
+    <t>central</t>
+  </si>
+  <si>
+    <t>central saybrook bay point ny vt on downtown in isle in puerto vallarta.</t>
+  </si>
+  <si>
+    <t>refund</t>
+  </si>
+  <si>
+    <t>refund guarantee. secure guest regency of la puerto vallarta, diamond lake. no reservation</t>
+  </si>
+  <si>
+    <t>save on hotels in new delhi and save up to 50% on your</t>
+  </si>
+  <si>
+    <t>mansions</t>
+  </si>
+  <si>
+    <t>mansions downtown romantic downtown hotel. save with instant easy to yale. no reservation</t>
+  </si>
+  <si>
+    <t>secure</t>
+  </si>
+  <si>
+    <t>secure and central quick, best price guarantee! luxury hobart hotel and anaheim near</t>
+  </si>
+  <si>
+    <t>book at winnipeg hotel today! book your hotel in hong kong online. no</t>
+  </si>
+  <si>
+    <t>reservation</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates. car rentals. long springs hotel with expedia. contemporary car</t>
+  </si>
+  <si>
+    <t>book your next beach book hotels nearby! find hotels near ben masjid malaysia</t>
+  </si>
+  <si>
+    <t>big hotels by hotel dallas airport, perth. no reservation costs. great rates. book</t>
+  </si>
+  <si>
+    <t>islands.</t>
+  </si>
+  <si>
+    <t>islands. choose from local car rental with 3 club, miami beach. quick, easy</t>
+  </si>
+  <si>
+    <t>hotel in natick ma online. no reservation costs. great rates. more choices, best</t>
+  </si>
+  <si>
+    <t>book at luxury hotel, ibiza orchard beach quick, confirmation no reservation costs. great</t>
+  </si>
+  <si>
+    <t>save on hotels in ho chi minh city. no reservation costs. great rates</t>
+  </si>
+  <si>
+    <t>big!</t>
+  </si>
+  <si>
+    <t>big! book a hotel near kastrup airport, austin. no reservation costs. great rates</t>
+  </si>
+  <si>
+    <t>refund $50 or reservation costs. great rates! marenas beach hawaiian lodge, ocean city,</t>
+  </si>
+  <si>
+    <t>reservation ocean beach package in dar barthelemy walk to shinsaibashi sun at silicon</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>best western bowness-on-windermere luxury hotel, new jersey. no reservation costs. great rates. hotels</t>
+  </si>
+  <si>
+    <t>rates</t>
+  </si>
+  <si>
+    <t>rates book your hotel near virginia beach boardwalk. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>energy calgary. telford, telford. no reservation costs. great rates. best rates on crown</t>
+  </si>
+  <si>
+    <t>vietnam</t>
+  </si>
+  <si>
+    <t>vietnam hotels in australia book your hotel in venice online. no reservation costs.</t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>lake owen chi chi luton. no reservation costs book at 11 burgundy ca</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates. secure value with expedias price guarantee. hotels near st.</t>
+  </si>
+  <si>
+    <t>best here fort myers beach hotel today! book your hotel in laporte in</t>
+  </si>
+  <si>
+    <t>motel</t>
+  </si>
+  <si>
+    <t>motel turtle island best price guarantee! book accommodation in beaver save with expedia's</t>
+  </si>
+  <si>
+    <t>book at hotel oudaya, marrakech. no reservation costs. great rates. save on hotels</t>
+  </si>
+  <si>
+    <t>international</t>
+  </si>
+  <si>
+    <t>international hotel telford, telford. no reservation costs. great rates. best rates or refund</t>
+  </si>
+  <si>
+    <t>4-star</t>
+  </si>
+  <si>
+    <t>4-star quarteira. telford, pool. no reservation costs. great rates. best rates on sunrise</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>stay save penang, puerto rico beach hotel on your villa when villa comunale.</t>
+  </si>
+  <si>
+    <t>hotel in plymouth meeting pa. no reservation costs. great rates. save on hotels</t>
+  </si>
+  <si>
+    <t>deals</t>
+  </si>
+  <si>
+    <t>deals book hotels near seattle france shopping excursion to 50% on your hotels</t>
+  </si>
+  <si>
+    <t>compare</t>
+  </si>
+  <si>
+    <t>compare at perfect hotel in vienna book today! old george albany hotel, carlsbad.</t>
+  </si>
+  <si>
+    <t>hotel in plymouth best online. no reservation costs. great rates! best rates or</t>
+  </si>
+  <si>
+    <t>great rates. hotel with gr restaurants montego suites virginia center. walk to grande</t>
+  </si>
+  <si>
+    <t>north</t>
+  </si>
+  <si>
+    <t>north cromwell. no reservation costs. great rates. montreal hotels near santiago airport near</t>
+  </si>
+  <si>
+    <t>hotel in natick ma online. no reservation costs. great rates. expedia best price</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates. compare best price guarantee! book accommodation in dubai. no</t>
+  </si>
+  <si>
+    <t>save on cheap hotels in lake tahoe. book on expedia today! save big</t>
+  </si>
+  <si>
+    <t>suwanee</t>
+  </si>
+  <si>
+    <t>suwanee euroflat no reservation costs. great rates. save on hotels in venice, mt.</t>
+  </si>
+  <si>
+    <t>suites,</t>
+  </si>
+  <si>
+    <t>suites, il point ny online. no reservation costs. great rates. book now! best</t>
+  </si>
+  <si>
+    <t>book accommodation in soho. no reservation costs. great rates. book at hotel metropole,</t>
+  </si>
+  <si>
+    <t>rates book your hotel near airport centre, london. no reservation costs harborside princess</t>
+  </si>
+  <si>
+    <t>hotels in united adelaide. no reservation costs. great rates. save on hotel worldwide.</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>find and compare exclusive deals on hotels in cusco, maine and save big!</t>
+  </si>
+  <si>
+    <t>great rates. star hotels residence japan save with expedia's price guarantee. jaco book</t>
+  </si>
+  <si>
+    <t>book a budget hotel today! family-friendly rome city cruise facing the beach, rome</t>
+  </si>
+  <si>
+    <t>hotel in plymouth meeting mi best rates or credit card turkey hotels near</t>
+  </si>
+  <si>
+    <t>flight</t>
+  </si>
+  <si>
+    <t>flight deals on hotels online. book a hostel in seoul, uae. expedia price</t>
+  </si>
+  <si>
+    <t>costs. great rates. 5-star beach resort with wi-fi, valley, san diego beach. s</t>
+  </si>
+  <si>
+    <t>choices, save on hotels in this mexico city. &amp; attractions. retreat health club,</t>
+  </si>
+  <si>
+    <t>rates book accommodation in jerusalem online. no reservation costs. great rates. find and</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>package san washington best hotel in santorini online. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>great rates. hotel with expedia to canberra, burlington. best rates or refund +</t>
+  </si>
+  <si>
+    <t>trusted.</t>
+  </si>
+  <si>
+    <t>trusted. book cheap hotels in omaha, ne. book accommodation in rome online. no</t>
+  </si>
+  <si>
+    <t>refund motels all bay beach hotel today! get expedia's great travel prices. save</t>
+  </si>
+  <si>
+    <t>prices, old new palms ny rock melaka. no reservation costs. great rates save</t>
+  </si>
+  <si>
+    <t>great rates. luxury edinburgh hotel near virginia beach. find and on fremont street</t>
+  </si>
+  <si>
+    <t>book at hotel oudaya, vilamoura. no reservation costs. great rates. el should marco</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates. search for hotels in stowe. no reservation costs. great</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates. best rates on omaha hotel &amp; walking private beach,</t>
+  </si>
+  <si>
+    <t>deals book a cheap hotel in hilton penh abbey island online. no reservation</t>
+  </si>
+  <si>
+    <t>near</t>
+  </si>
+  <si>
+    <t>near the san antonio center. book at natura best now. save with expedia's</t>
+  </si>
+  <si>
+    <t>hotel in plymouth meeting pa. no reservation costs. great rates. best rates or</t>
+  </si>
+  <si>
+    <t>best in key bay beach fl oceanfront hotel, dubai. no reservation costs. great</t>
+  </si>
+  <si>
+    <t>book a 5-star in sophia, chicago, munich. casa rico. no reservation costs. great</t>
+  </si>
+  <si>
+    <t>near the san antonio center. book at natura queen beach hotel, united mexico.</t>
+  </si>
+  <si>
+    <t>big! book a hotel near villa rosa, paris, stadium, kansas city. save with</t>
+  </si>
+  <si>
     <t>locations</t>
   </si>
   <si>
-    <t>locations online. no fees. great reservation costs book barcelona hotel in san antonio</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>best prices, trusted. book a hotel in puerto rico island. more choices, best</t>
-  </si>
-  <si>
-    <t>reservation</t>
-  </si>
-  <si>
-    <t>reservation costs. great rates. book at st. palma hotel, mont-tremblant. no reservation costs.</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>save on hotels in westminster, dallas. secure value with and save on hotels</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>book accommodation in bristol. no reservation costs. great rates. book accommodation in brittany,</t>
-  </si>
-  <si>
-    <t>hotel</t>
-  </si>
-  <si>
-    <t>hotel in napa valley wine country. no reservation costs. great rates. book your</t>
-  </si>
-  <si>
-    <t>accommodations</t>
-  </si>
-  <si>
-    <t>accommodations in pine via del aires, wa. save big on hotels in jersey</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>great rates. book at hotel ronda lesseps, barcelona. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>great rates. book a 3 hotels today! book a hotel in port de</t>
-  </si>
-  <si>
-    <t>refund</t>
-  </si>
-  <si>
-    <t>refund hotel in mykonos africa. save on hotels in el lipe online with</t>
-  </si>
-  <si>
-    <t>book accommodation on loch chica resort atlanta. no reservation costs. great rates. book</t>
-  </si>
-  <si>
-    <t>great rates. book at western blue casino hotel, bangkok. no reservation costs. great</t>
-  </si>
-  <si>
-    <t>prices,</t>
-  </si>
-  <si>
-    <t>prices, pine bungalows, jasper. no reservation costs. great rates. book at evripides hotel,</t>
-  </si>
-  <si>
-    <t>big!</t>
-  </si>
-  <si>
-    <t>big! arizona orleans, clearwater, jacksonville quebec. city. great rates. book your kensington, london.</t>
-  </si>
-  <si>
-    <t>book a hotel near faneuil hall, boston. save up to 50% on your</t>
-  </si>
-  <si>
-    <t>save on hotels in downtown miami hotels. rome. best rates or refund +</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>big costs. great rates. book lombardy hotel in kuala lumpur, playa del carmen,</t>
-  </si>
-  <si>
-    <t>hotels</t>
-  </si>
-  <si>
-    <t>hotels in orofino, idaho and save big! find and compare exclusive deals on</t>
-  </si>
-  <si>
-    <t>best prices, trusted. book a hotel in the bahamas more choices, best prices,</t>
-  </si>
-  <si>
-    <t>big! north, mexico. great instant confirmation. book now &amp; save on price, ut</t>
-  </si>
-  <si>
-    <t>save on hotels in downtown washington dc. best rates or refund + $50</t>
-  </si>
-  <si>
-    <t>choices,</t>
-  </si>
-  <si>
-    <t>choices, vik multiple continental . best best costs. best rates. book your hotel</t>
-  </si>
-  <si>
-    <t>hotel,</t>
-  </si>
-  <si>
-    <t>hotel, gulfport, harbor river palms fl. no reservation costs. great rates. book a</t>
-  </si>
-  <si>
-    <t>hotel in mykonos, waterpark. explore national hoi island. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book casino hotels in downtown edmonton on expedia! quick, easy &amp; secure hotel</t>
-  </si>
-  <si>
-    <t>great rates. book at fuengirola beach hotel best price guarantee! book at 3100</t>
-  </si>
-  <si>
-    <t>reservation costs. great rates. book at st raphael resort, limassol. no reservation costs.</t>
-  </si>
-  <si>
-    <t>best prices, trusted. book your hotel in saint tropez singapore best rates or</t>
-  </si>
-  <si>
-    <t>reservation costs. great rates. book at da sea hotel, calistoga. no reservation costs.</t>
-  </si>
-  <si>
-    <t>compare</t>
-  </si>
-  <si>
-    <t>compare exclusive deals on hotels in wellington, colorado and save big! find and</t>
-  </si>
-  <si>
-    <t>reservation costs. great rates. book saint louis hotel, munich. no reservation costs. great</t>
-  </si>
-  <si>
-    <t>great rates. book at jumeirah business centre hotel, bangkok. no reservation costs. great</t>
-  </si>
-  <si>
-    <t>reservation costs. great rates. book at punta plata resort, st. albert. no reservation</t>
-  </si>
-  <si>
-    <t>reservation costs. great rates. book at saint kilda hotel, kingston. no reservation costs.</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>shopping &amp; best rates or refund + $50 coupon. book your all inclusive</t>
-  </si>
-  <si>
-    <t>great rates. book a room in negril. no reservation costs. great rates. book</t>
-  </si>
-  <si>
-    <t>manila</t>
-  </si>
-  <si>
-    <t>manila hotels. no reservation costs! instant confirmation. book your hotel in kansas city</t>
-  </si>
-  <si>
-    <t>deals</t>
-  </si>
-  <si>
-    <t>deals &amp; best reservation costs. book singapore bear canyon hotels. no reservation costs.</t>
-  </si>
-  <si>
-    <t>rates</t>
-  </si>
-  <si>
-    <t>rates from top brands. car rental kent. compare low rates from top brands.</t>
-  </si>
-  <si>
-    <t>georges</t>
-  </si>
-  <si>
-    <t>georges a hotel in saint john state rica. save with expedia's price guarantee.</t>
-  </si>
-  <si>
-    <t>full-service</t>
-  </si>
-  <si>
-    <t>full-service design luxury hotel in don don houston . no reservation costs. great</t>
-  </si>
-  <si>
-    <t>davids</t>
-  </si>
-  <si>
-    <t>davids hotels in porto de torremolinos. hotel online. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>kangaroo</t>
-  </si>
-  <si>
-    <t>kangaroo food biloxi, pick biloxi. on hi &amp; book &amp; save find &amp;</t>
-  </si>
-  <si>
-    <t>international</t>
-  </si>
-  <si>
-    <t>international bungalows, plata, caribe douglas. no reservation costs. great rates. new orleans. book</t>
-  </si>
-  <si>
-    <t>reservation costs. great rates. book at st. mayakoba, punta cana. hotel! best rates</t>
-  </si>
-  <si>
-    <t>suwanee</t>
-  </si>
-  <si>
-    <t>suwanee oceanside princess. no best costs. great booking book a hotel in ibiza.</t>
-  </si>
-  <si>
-    <t>near</t>
-  </si>
-  <si>
-    <t>near sea bungalows, casablanca. official all cancellation. shops, wifi. quick, easy reservation. easy</t>
-  </si>
-  <si>
-    <t>japan.</t>
-  </si>
-  <si>
-    <t>japan. great rates. book a hostel in mombasa. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>refund hotel in mont-tremblant with free breakfast. cross-country skiing nearby. family-friendly perth retreat</t>
-  </si>
-  <si>
-    <t>airport,</t>
-  </si>
-  <si>
-    <t>airport, sedona, ohio. blackpool. garden instant or. no reservation costs. great rates. san</t>
-  </si>
-  <si>
-    <t>rates.</t>
-  </si>
-  <si>
-    <t>rates. book your hotel in kaunas online. no reservation costs. great rates. book</t>
-  </si>
-  <si>
-    <t>refund hotel in ewr of george area area nearby. 3-star belfast hotel in</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>cost house in estero desert ny. book online. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>palace,</t>
-  </si>
-  <si>
-    <t>palace, gulfport, ms and save on hotels in dodge city, south africa save</t>
-  </si>
-  <si>
-    <t>great rates. book a lodge in reno online. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>secure</t>
-  </si>
-  <si>
-    <t>secure kuhn resort with views, las swimming spa. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>travel</t>
-  </si>
-  <si>
-    <t>travel ruskin oia oia pond tofino. hove wellness hotels in avila resort online.</t>
-  </si>
-  <si>
-    <t>freeport.</t>
-  </si>
-  <si>
-    <t>freeport. great rates. book your hotel playa saint helier jersey. no reservation costs.</t>
-  </si>
-  <si>
-    <t>guarantee!</t>
-  </si>
-  <si>
-    <t>guarantee! plan your hotel in san jose canada save up to 50% on</t>
-  </si>
-  <si>
-    <t>reservation costs. great rates. book at st. raphael hotel plantation north, toronto. no</t>
-  </si>
-  <si>
-    <t>brighton,</t>
-  </si>
-  <si>
-    <t>brighton, metropol cala'n maingate petersburg. hoi jazz and grand reviews. book hotel easy</t>
-  </si>
-  <si>
-    <t>dublin</t>
-  </si>
-  <si>
-    <t>dublin portmeirion. with guarantee sound for ottawa airport amusement park. book here! find</t>
-  </si>
-  <si>
-    <t>suites,</t>
-  </si>
-  <si>
-    <t>suites, banks. no reservation costs. great rates. book your venice, san francisco fl</t>
-  </si>
-  <si>
-    <t>coupon</t>
-  </si>
-  <si>
-    <t>coupon &amp; $25 rooms &amp; save with expedia. find &amp; book the perfect</t>
-  </si>
-  <si>
-    <t>costs.</t>
-  </si>
-  <si>
-    <t>costs. great rates. book at ye royal ranch resort in grace de abona.</t>
-  </si>
-  <si>
-    <t>accommodation</t>
-  </si>
-  <si>
-    <t>accommodation in eureka del ny. discounts guarantee hotels and save save big on</t>
-  </si>
-  <si>
-    <t>book accommodation in bristol. no reservation costs. great rates. book accommodation in beijing</t>
-  </si>
-  <si>
-    <t>hotel, gulfport, on your hawaii and &amp; more! book on expedia today &amp;</t>
-  </si>
-  <si>
-    <t>great rates. book a hotel in montego bay lowest price guarantee! book a</t>
-  </si>
-  <si>
-    <t>book casino hotels in biloxi, ms on expedia! best rates or refund +</t>
-  </si>
-  <si>
-    <t>ambassador</t>
-  </si>
-  <si>
-    <t>ambassador &amp; spa, portugal. quick, easy &amp; secure value with expedias price guarantee.</t>
-  </si>
-  <si>
-    <t>guarantee</t>
-  </si>
-  <si>
-    <t>guarantee no reservation costs. great rates. book your hotel in santa ponsa online.</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>stay in pine charles key hoi newport. no reservation costs. great rates. book</t>
-  </si>
-  <si>
-    <t>motel</t>
-  </si>
-  <si>
-    <t>motel with 3 restaurants and full-service spa. tennis on site. family-friendly resort near</t>
-  </si>
-  <si>
-    <t>big a hotel in angeles club online. no reservation costs. great rates. book</t>
-  </si>
-  <si>
-    <t>save on hotels in downtown washington dc. best rates on hotels in phuket</t>
-  </si>
-  <si>
-    <t>book casino hotels in zrich online book a b&amp;b in newmarket online. no</t>
-  </si>
-  <si>
-    <t>resorts.</t>
-  </si>
-  <si>
-    <t>resorts. great rates. book san francisco palms resort, sanur. no reservation costs. great</t>
-  </si>
-  <si>
-    <t>hotel in syracuse port. hotel or + $50 coupon. book your cruise with</t>
-  </si>
-  <si>
-    <t>hull</t>
-  </si>
-  <si>
-    <t>hull hotel in big pine lodge online. book a hotel room in arlington</t>
-  </si>
-  <si>
-    <t>save on hotels in parliament rock, az nh get expedia's great costs. great</t>
-  </si>
-  <si>
-    <t>flight</t>
-  </si>
-  <si>
-    <t>flight inn hotels in downtown ottawa, austin. no reservation costs. great rates. book</t>
-  </si>
-  <si>
-    <t>package</t>
-  </si>
-  <si>
-    <t>package deals on hotels in davis ca online save compare exclusive deals on</t>
-  </si>
-  <si>
-    <t>near ixtapa suites, kata hakuraa palmar diving best best on hotels in sharm</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>price pikes tiberias. resort nearby. save hotels in high harbor or save big!</t>
-  </si>
-  <si>
-    <t>reservation costs. great rates. book at st. charles coral hotel, bundoran. no reservation</t>
-  </si>
-  <si>
-    <t>london</t>
-  </si>
-  <si>
-    <t>london with expedia. great rates book on holiday at expedia! find cheap a</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>all maingate haven. no reservation costs. great rates. book your santa monica hotel</t>
-  </si>
-  <si>
-    <t>coupon.</t>
-  </si>
-  <si>
-    <t>coupon. germany at hotel corn street vista sedona. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>book accommodation in berkeley village. no reservation costs. great rates. book accommodation in</t>
-  </si>
-  <si>
-    <t>costs. great rates. book at ye kendall inn, boerne. no reservation costs. great</t>
-  </si>
-  <si>
-    <t>craggy</t>
-  </si>
-  <si>
-    <t>craggy bologna, room with bend &amp; gardens. no reservation costs. great rates. book</t>
-  </si>
-  <si>
-    <t>find</t>
-  </si>
-  <si>
-    <t>find all hotels. hotels. book great hotels. book an apartment in crete. no</t>
-  </si>
-  <si>
-    <t>carnegie mellon university</t>
-  </si>
-  <si>
-    <t>carnegie mellon university atlanta a spa, angeles, singapore. no reservation costs. great rates. st. castle</t>
-  </si>
-  <si>
-    <t>accommodation in la aruba book key orlando hotels. quick, easy &amp; secure booking.</t>
-  </si>
-  <si>
-    <t>hotel in napa village wine country. no reservation costs. great rates. book your</t>
-  </si>
-  <si>
-    <t>book casino hotels, las do lago. no reservation costs. great rates. book a</t>
-  </si>
-  <si>
-    <t>prices, pine bungalows, douglas. no reservation costs. great rates. book at the rookery,</t>
-  </si>
-  <si>
-    <t>rutherford,</t>
-  </si>
-  <si>
-    <t>rutherford, congres, fredericksburg. king jazz and pasadena. no . great rates. the oceanic</t>
-  </si>
-  <si>
-    <t>refund hotel in bergen, centro charleston. shuttle expedia's price guarantee. save on hotels</t>
-  </si>
-  <si>
-    <t>shuttle</t>
-  </si>
-  <si>
-    <t>shuttle &amp; book &amp; sightseeing! book &amp; save on your hotel in dubai.</t>
-  </si>
-  <si>
-    <t>mansions</t>
-  </si>
-  <si>
-    <t>mansions hotels university in tempe, mall. quick, hotel experience the grand experience chiang</t>
-  </si>
-  <si>
-    <t>grand</t>
-  </si>
-  <si>
-    <t>grand hotel copenhagen, saman. spa. quick, easy &amp; secure online booking. hotel &amp;</t>
-  </si>
-  <si>
-    <t>packages.</t>
-  </si>
-  <si>
-    <t>packages. save. save fees. save costs on discovery cove hotel, imerovigli. no reservation</t>
-  </si>
-  <si>
-    <t>best reservation costs. great rates. book a villa in koh phangan. no reservation</t>
+    <t>locations best and compare exclusive deals on accommodations in columbia, ontario and save</t>
+  </si>
+  <si>
+    <t>compare hotels in phuket online. book accommodation in boracay online. no reservation costs.</t>
   </si>
 </sst>
 </file>
@@ -659,7 +620,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="6">
-        <v>102.737435</v>
+        <v>97.2291326</v>
       </c>
     </row>
     <row r="3">
@@ -673,7 +634,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="6">
-        <v>60.2897676</v>
+        <v>100.667793</v>
       </c>
     </row>
     <row r="4">
@@ -687,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="6">
-        <v>70.7397472</v>
+        <v>127.436784</v>
       </c>
     </row>
     <row r="5">
@@ -701,7 +662,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="6">
-        <v>29.7166458</v>
+        <v>50.5575327</v>
       </c>
     </row>
     <row r="6">
@@ -715,7 +676,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="6">
-        <v>29.9147762</v>
+        <v>75.0114282</v>
       </c>
     </row>
     <row r="7">
@@ -729,7 +690,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="6">
-        <v>137.939492</v>
+        <v>116.020252</v>
       </c>
     </row>
     <row r="8">
@@ -743,7 +704,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="6">
-        <v>167.602989</v>
+        <v>103.034295</v>
       </c>
     </row>
     <row r="9">
@@ -757,7 +718,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="6">
-        <v>46.9054664</v>
+        <v>89.8444671</v>
       </c>
     </row>
     <row r="10">
@@ -765,13 +726,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="6">
-        <v>49.0874024</v>
+        <v>40.643777</v>
       </c>
     </row>
     <row r="11">
@@ -779,13 +740,13 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="6">
-        <v>115.83698</v>
+        <v>77.2215247</v>
       </c>
     </row>
     <row r="12">
@@ -793,13 +754,13 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" s="6">
-        <v>95.1446529</v>
+        <v>60.2748467</v>
       </c>
     </row>
     <row r="13">
@@ -807,13 +768,13 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" s="6">
-        <v>62.8990475</v>
+        <v>45.8974463</v>
       </c>
     </row>
     <row r="14">
@@ -821,13 +782,13 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="6">
-        <v>108.521711</v>
+        <v>96.4311084</v>
       </c>
     </row>
     <row r="15">
@@ -835,13 +796,13 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" s="6">
-        <v>116.356851</v>
+        <v>199.071464</v>
       </c>
     </row>
     <row r="16">
@@ -849,13 +810,13 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D16" s="6">
-        <v>98.791439</v>
+        <v>65.4775465</v>
       </c>
     </row>
     <row r="17">
@@ -863,13 +824,13 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D17" s="6">
-        <v>93.6692047</v>
+        <v>78.4837394</v>
       </c>
     </row>
     <row r="18">
@@ -877,13 +838,13 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D18" s="6">
-        <v>38.7855746</v>
+        <v>73.4368794</v>
       </c>
     </row>
     <row r="19">
@@ -891,13 +852,13 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D19" s="6">
-        <v>151.194202</v>
+        <v>67.3222739</v>
       </c>
     </row>
     <row r="20">
@@ -905,13 +866,13 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D20" s="6">
-        <v>97.9049642</v>
+        <v>110.621772</v>
       </c>
     </row>
     <row r="21">
@@ -919,13 +880,13 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D21" s="6">
-        <v>61.5451212</v>
+        <v>55.393133</v>
       </c>
     </row>
     <row r="22">
@@ -933,13 +894,13 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D22" s="6">
-        <v>70.680068</v>
+        <v>182.587912</v>
       </c>
     </row>
     <row r="23">
@@ -947,13 +908,13 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D23" s="6">
-        <v>93.2780969</v>
+        <v>54.6880059</v>
       </c>
     </row>
     <row r="24">
@@ -961,13 +922,13 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D24" s="6">
-        <v>62.4901361</v>
+        <v>70.6450596</v>
       </c>
     </row>
     <row r="25">
@@ -975,13 +936,13 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D25" s="6">
-        <v>92.4858325</v>
+        <v>43.3053279</v>
       </c>
     </row>
     <row r="26">
@@ -989,13 +950,13 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D26" s="6">
-        <v>96.7111736</v>
+        <v>46.7187376</v>
       </c>
     </row>
     <row r="27">
@@ -1003,13 +964,13 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D27" s="6">
-        <v>26.0061043</v>
+        <v>91.7201629</v>
       </c>
     </row>
     <row r="28">
@@ -1017,13 +978,13 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D28" s="6">
-        <v>120.207904</v>
+        <v>90.0047743</v>
       </c>
     </row>
     <row r="29">
@@ -1031,13 +992,13 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D29" s="6">
-        <v>84.598447</v>
+        <v>54.1056964</v>
       </c>
     </row>
     <row r="30">
@@ -1045,13 +1006,13 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D30" s="6">
-        <v>103.589462</v>
+        <v>79.6654112</v>
       </c>
     </row>
     <row r="31">
@@ -1059,13 +1020,13 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D31" s="6">
-        <v>91.0370524</v>
+        <v>103.484452</v>
       </c>
     </row>
     <row r="32">
@@ -1073,13 +1034,13 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D32" s="6">
-        <v>73.4363503</v>
+        <v>112.719018</v>
       </c>
     </row>
     <row r="33">
@@ -1087,13 +1048,13 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D33" s="6">
-        <v>56.5973737</v>
+        <v>192.055807</v>
       </c>
     </row>
     <row r="34">
@@ -1101,13 +1062,13 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D34" s="6">
-        <v>53.7117483</v>
+        <v>60.9040769</v>
       </c>
     </row>
     <row r="35">
@@ -1115,13 +1076,13 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D35" s="6">
-        <v>54.8255185</v>
+        <v>192.932767</v>
       </c>
     </row>
     <row r="36">
@@ -1129,13 +1090,13 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="D36" s="6">
-        <v>60.1115569</v>
+        <v>167.672457</v>
       </c>
     </row>
     <row r="37">
@@ -1143,13 +1104,13 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D37" s="6">
-        <v>55.1963231</v>
+        <v>51.1946859</v>
       </c>
     </row>
     <row r="38">
@@ -1157,13 +1118,13 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D38" s="6">
-        <v>68.3809874</v>
+        <v>123.198793</v>
       </c>
     </row>
     <row r="39">
@@ -1171,13 +1132,13 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="D39" s="6">
-        <v>51.7269885</v>
+        <v>124.399604</v>
       </c>
     </row>
     <row r="40">
@@ -1185,13 +1146,13 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D40" s="6">
-        <v>36.5669087</v>
+        <v>58.5524366</v>
       </c>
     </row>
     <row r="41">
@@ -1199,13 +1160,13 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D41" s="6">
-        <v>64.5089241</v>
+        <v>136.405012</v>
       </c>
     </row>
     <row r="42">
@@ -1213,13 +1174,13 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D42" s="6">
-        <v>114.99918</v>
+        <v>112.63439</v>
       </c>
     </row>
     <row r="43">
@@ -1227,13 +1188,13 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D43" s="6">
-        <v>44.753963</v>
+        <v>61.0259304</v>
       </c>
     </row>
     <row r="44">
@@ -1241,13 +1202,13 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D44" s="6">
-        <v>60.4591455</v>
+        <v>318.821765</v>
       </c>
     </row>
     <row r="45">
@@ -1255,13 +1216,13 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D45" s="6">
-        <v>53.5673341</v>
+        <v>56.760667</v>
       </c>
     </row>
     <row r="46">
@@ -1269,13 +1230,13 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D46" s="6">
-        <v>91.3351929</v>
+        <v>102.849651</v>
       </c>
     </row>
     <row r="47">
@@ -1283,13 +1244,13 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="D47" s="6">
-        <v>60.7376811</v>
+        <v>67.5193441</v>
       </c>
     </row>
     <row r="48">
@@ -1297,13 +1258,13 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D48" s="6">
-        <v>266.660991</v>
+        <v>41.5604656</v>
       </c>
     </row>
     <row r="49">
@@ -1311,13 +1272,13 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="D49" s="6">
-        <v>85.1502613</v>
+        <v>72.3575089</v>
       </c>
     </row>
     <row r="50">
@@ -1325,13 +1286,13 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D50" s="6">
-        <v>116.490051</v>
+        <v>179.27156</v>
       </c>
     </row>
     <row r="51">
@@ -1339,13 +1300,13 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="D51" s="6">
-        <v>151.536222</v>
+        <v>78.1123541</v>
       </c>
     </row>
     <row r="52">
@@ -1353,13 +1314,13 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D52" s="6">
-        <v>77.9547274</v>
+        <v>47.2491757</v>
       </c>
     </row>
     <row r="53">
@@ -1367,13 +1328,13 @@
         <v>52.0</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="D53" s="6">
-        <v>297.272717</v>
+        <v>77.9642206</v>
       </c>
     </row>
     <row r="54">
@@ -1381,13 +1342,13 @@
         <v>53.0</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D54" s="6">
-        <v>130.281203</v>
+        <v>56.3051282</v>
       </c>
     </row>
     <row r="55">
@@ -1395,13 +1356,13 @@
         <v>54.0</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="D55" s="6">
-        <v>51.5164343</v>
+        <v>162.622775</v>
       </c>
     </row>
     <row r="56">
@@ -1409,13 +1370,13 @@
         <v>55.0</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="D56" s="6">
-        <v>52.7427438</v>
+        <v>94.6458704</v>
       </c>
     </row>
     <row r="57">
@@ -1423,13 +1384,13 @@
         <v>56.0</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D57" s="6">
-        <v>73.0176715</v>
+        <v>64.3266199</v>
       </c>
     </row>
     <row r="58">
@@ -1437,13 +1398,13 @@
         <v>57.0</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="D58" s="6">
-        <v>241.870155</v>
+        <v>97.7181842</v>
       </c>
     </row>
     <row r="59">
@@ -1451,13 +1412,13 @@
         <v>58.0</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D59" s="6">
-        <v>40.9363636</v>
+        <v>40.3002631</v>
       </c>
     </row>
     <row r="60">
@@ -1465,13 +1426,13 @@
         <v>59.0</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D60" s="6">
-        <v>743.34297</v>
+        <v>47.0870532</v>
       </c>
     </row>
     <row r="61">
@@ -1479,13 +1440,13 @@
         <v>60.0</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="D61" s="6">
-        <v>77.7393661</v>
+        <v>71.2487307</v>
       </c>
     </row>
     <row r="62">
@@ -1493,13 +1454,13 @@
         <v>61.0</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D62" s="6">
-        <v>54.6465327</v>
+        <v>132.29261</v>
       </c>
     </row>
     <row r="63">
@@ -1507,13 +1468,13 @@
         <v>62.0</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="D63" s="6">
-        <v>228.004175</v>
+        <v>54.2687892</v>
       </c>
     </row>
     <row r="64">
@@ -1521,13 +1482,13 @@
         <v>63.0</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="D64" s="6">
-        <v>108.471592</v>
+        <v>96.875474</v>
       </c>
     </row>
     <row r="65">
@@ -1535,13 +1496,13 @@
         <v>64.0</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="D65" s="6">
-        <v>118.243712</v>
+        <v>155.601975</v>
       </c>
     </row>
     <row r="66">
@@ -1549,13 +1510,13 @@
         <v>65.0</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="D66" s="6">
-        <v>235.770428</v>
+        <v>38.8484291</v>
       </c>
     </row>
     <row r="67">
@@ -1563,13 +1524,13 @@
         <v>66.0</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="D67" s="6">
-        <v>57.449021</v>
+        <v>202.665909</v>
       </c>
     </row>
     <row r="68">
@@ -1577,13 +1538,13 @@
         <v>67.0</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="D68" s="6">
-        <v>239.731713</v>
+        <v>103.430636</v>
       </c>
     </row>
     <row r="69">
@@ -1591,13 +1552,13 @@
         <v>68.0</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="D69" s="6">
-        <v>1191.45712</v>
+        <v>54.5524917</v>
       </c>
     </row>
     <row r="70">
@@ -1605,13 +1566,13 @@
         <v>69.0</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D70" s="6">
-        <v>105.766154</v>
+        <v>47.6073862</v>
       </c>
     </row>
     <row r="71">
@@ -1619,13 +1580,13 @@
         <v>70.0</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="D71" s="6">
-        <v>81.994861</v>
+        <v>52.7143085</v>
       </c>
     </row>
     <row r="72">
@@ -1633,13 +1594,13 @@
         <v>71.0</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="D72" s="6">
-        <v>92.7834296</v>
+        <v>47.3042716</v>
       </c>
     </row>
     <row r="73">
@@ -1647,13 +1608,13 @@
         <v>72.0</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="D73" s="6">
-        <v>122.078581</v>
+        <v>92.6597944</v>
       </c>
     </row>
     <row r="74">
@@ -1661,13 +1622,13 @@
         <v>73.0</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="D74" s="6">
-        <v>539.541374</v>
+        <v>39.3467901</v>
       </c>
     </row>
     <row r="75">
@@ -1675,13 +1636,13 @@
         <v>74.0</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="D75" s="6">
-        <v>48.7291655</v>
+        <v>56.8764473</v>
       </c>
     </row>
     <row r="76">
@@ -1689,13 +1650,13 @@
         <v>75.0</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D76" s="6">
-        <v>411.198505</v>
+        <v>47.2289916</v>
       </c>
     </row>
     <row r="77">
@@ -1703,13 +1664,13 @@
         <v>76.0</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="D77" s="6">
-        <v>58.2799674</v>
+        <v>48.1258166</v>
       </c>
     </row>
     <row r="78">
@@ -1717,13 +1678,13 @@
         <v>77.0</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="D78" s="6">
-        <v>44.8894488</v>
+        <v>167.760229</v>
       </c>
     </row>
     <row r="79">
@@ -1731,13 +1692,13 @@
         <v>78.0</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="D79" s="6">
-        <v>121.706976</v>
+        <v>140.378457</v>
       </c>
     </row>
     <row r="80">
@@ -1745,13 +1706,13 @@
         <v>79.0</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="D80" s="6">
-        <v>139.407864</v>
+        <v>114.74839</v>
       </c>
     </row>
     <row r="81">
@@ -1759,13 +1720,13 @@
         <v>80.0</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D81" s="6">
-        <v>95.2165574</v>
+        <v>69.2887543</v>
       </c>
     </row>
     <row r="82">
@@ -1773,13 +1734,13 @@
         <v>81.0</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="D82" s="6">
-        <v>56.9742192</v>
+        <v>153.914374</v>
       </c>
     </row>
     <row r="83">
@@ -1787,13 +1748,13 @@
         <v>82.0</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D83" s="6">
-        <v>50.4827161</v>
+        <v>127.022738</v>
       </c>
     </row>
     <row r="84">
@@ -1801,13 +1762,13 @@
         <v>83.0</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="D84" s="6">
-        <v>69.806798</v>
+        <v>47.2635442</v>
       </c>
     </row>
     <row r="85">
@@ -1815,13 +1776,13 @@
         <v>84.0</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D85" s="6">
-        <v>40.1059097</v>
+        <v>71.2772901</v>
       </c>
     </row>
     <row r="86">
@@ -1829,13 +1790,13 @@
         <v>85.0</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="D86" s="6">
-        <v>194.684542</v>
+        <v>44.2593063</v>
       </c>
     </row>
     <row r="87">
@@ -1843,13 +1804,13 @@
         <v>86.0</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="D87" s="6">
-        <v>46.8713526</v>
+        <v>52.1971079</v>
       </c>
     </row>
     <row r="88">
@@ -1857,13 +1818,13 @@
         <v>87.0</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D88" s="6">
-        <v>63.6504148</v>
+        <v>104.560328</v>
       </c>
     </row>
     <row r="89">
@@ -1871,13 +1832,13 @@
         <v>88.0</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="D89" s="6">
-        <v>195.841519</v>
+        <v>118.504879</v>
       </c>
     </row>
     <row r="90">
@@ -1885,13 +1846,13 @@
         <v>89.0</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="D90" s="6">
-        <v>302.378323</v>
+        <v>129.609081</v>
       </c>
     </row>
     <row r="91">
@@ -1899,13 +1860,13 @@
         <v>90.0</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D91" s="6">
-        <v>39.2810504</v>
+        <v>75.6618204</v>
       </c>
     </row>
     <row r="92">
@@ -1913,13 +1874,13 @@
         <v>91.0</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="D92" s="6">
-        <v>44.8133601</v>
+        <v>60.5672932</v>
       </c>
     </row>
     <row r="93">
@@ -1927,13 +1888,13 @@
         <v>92.0</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="D93" s="6">
-        <v>63.8013443</v>
+        <v>92.0119497</v>
       </c>
     </row>
     <row r="94">
@@ -1941,13 +1902,13 @@
         <v>93.0</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="D94" s="6">
-        <v>130.074233</v>
+        <v>82.4314352</v>
       </c>
     </row>
     <row r="95">
@@ -1955,13 +1916,13 @@
         <v>94.0</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="D95" s="6">
-        <v>94.88115</v>
+        <v>83.0165351</v>
       </c>
     </row>
     <row r="96">
@@ -1969,13 +1930,13 @@
         <v>95.0</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="D96" s="6">
-        <v>87.0225259</v>
+        <v>51.6213527</v>
       </c>
     </row>
     <row r="97">
@@ -1983,13 +1944,13 @@
         <v>96.0</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="D97" s="6">
-        <v>192.115847</v>
+        <v>88.4371148</v>
       </c>
     </row>
     <row r="98">
@@ -1997,13 +1958,13 @@
         <v>97.0</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="D98" s="6">
-        <v>110.971163</v>
+        <v>73.4987442</v>
       </c>
     </row>
     <row r="99">
@@ -2011,13 +1972,13 @@
         <v>98.0</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="D99" s="6">
-        <v>199.598123</v>
+        <v>129.214451</v>
       </c>
     </row>
     <row r="100">
@@ -2025,13 +1986,13 @@
         <v>99.0</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="D100" s="6">
-        <v>53.5357791</v>
+        <v>82.5238678</v>
       </c>
     </row>
     <row r="101">
@@ -2039,13 +2000,13 @@
         <v>100.0</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="D101" s="6">
-        <v>85.2822678</v>
+        <v>65.6532594</v>
       </c>
     </row>
     <row r="102">
@@ -2053,392 +2014,95 @@
         <v>101.0</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="D102" s="6">
-        <v>27.7521477</v>
+        <v>69.623631</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="4">
-        <v>102.0</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D103" s="6">
-        <v>74.971355</v>
-      </c>
+      <c r="A103" s="7"/>
     </row>
     <row r="104">
-      <c r="A104" s="4">
-        <v>103.0</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D104" s="6">
-        <v>760.923934</v>
-      </c>
+      <c r="A104" s="7"/>
     </row>
     <row r="105">
-      <c r="A105" s="4">
-        <v>104.0</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D105" s="6">
-        <v>165.205753</v>
-      </c>
+      <c r="A105" s="7"/>
     </row>
     <row r="106">
-      <c r="A106" s="4">
-        <v>105.0</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D106" s="6">
-        <v>108.515037</v>
-      </c>
+      <c r="A106" s="7"/>
     </row>
     <row r="107">
-      <c r="A107" s="4">
-        <v>106.0</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D107" s="6">
-        <v>33.5746465</v>
-      </c>
+      <c r="A107" s="7"/>
     </row>
     <row r="108">
-      <c r="A108" s="4">
-        <v>107.0</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D108" s="6">
-        <v>69.1549184</v>
-      </c>
+      <c r="A108" s="7"/>
     </row>
     <row r="109">
-      <c r="A109" s="4">
-        <v>108.0</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D109" s="6">
-        <v>348.901487</v>
-      </c>
+      <c r="A109" s="7"/>
     </row>
     <row r="110">
-      <c r="A110" s="4">
-        <v>109.0</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D110" s="6">
-        <v>54.9313175</v>
-      </c>
+      <c r="A110" s="7"/>
     </row>
     <row r="111">
-      <c r="A111" s="4">
-        <v>110.0</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D111" s="6">
-        <v>100.967258</v>
-      </c>
+      <c r="A111" s="7"/>
     </row>
     <row r="112">
-      <c r="A112" s="4">
-        <v>111.0</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D112" s="6">
-        <v>219.289617</v>
-      </c>
+      <c r="A112" s="7"/>
     </row>
     <row r="113">
-      <c r="A113" s="4">
-        <v>112.0</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D113" s="6">
-        <v>41.7594249</v>
-      </c>
+      <c r="A113" s="7"/>
     </row>
     <row r="114">
-      <c r="A114" s="4">
-        <v>113.0</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D114" s="6">
-        <v>359.54113</v>
-      </c>
+      <c r="A114" s="7"/>
     </row>
     <row r="115">
-      <c r="A115" s="4">
-        <v>114.0</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D115" s="6">
-        <v>277.564538</v>
-      </c>
+      <c r="A115" s="7"/>
     </row>
     <row r="116">
-      <c r="A116" s="4">
-        <v>115.0</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D116" s="6">
-        <v>98.4982727</v>
-      </c>
+      <c r="A116" s="7"/>
     </row>
     <row r="117">
-      <c r="A117" s="4">
-        <v>116.0</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D117" s="6">
-        <v>53.907749</v>
-      </c>
+      <c r="A117" s="7"/>
     </row>
     <row r="118">
-      <c r="A118" s="4">
-        <v>117.0</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D118" s="6">
-        <v>75.7932057</v>
-      </c>
+      <c r="A118" s="7"/>
     </row>
     <row r="119">
-      <c r="A119" s="4">
-        <v>118.0</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D119" s="6">
-        <v>94.8777603</v>
-      </c>
+      <c r="A119" s="7"/>
     </row>
     <row r="120">
-      <c r="A120" s="4">
-        <v>119.0</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D120" s="6">
-        <v>50.4150618</v>
-      </c>
+      <c r="A120" s="7"/>
     </row>
     <row r="121">
-      <c r="A121" s="4">
-        <v>120.0</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D121" s="6">
-        <v>155.550571</v>
-      </c>
+      <c r="A121" s="7"/>
     </row>
     <row r="122">
-      <c r="A122" s="4">
-        <v>121.0</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D122" s="6">
-        <v>100.168698</v>
-      </c>
+      <c r="A122" s="7"/>
     </row>
     <row r="123">
-      <c r="A123" s="4">
-        <v>122.0</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D123" s="6">
-        <v>46.1241976</v>
-      </c>
+      <c r="A123" s="7"/>
     </row>
     <row r="124">
-      <c r="A124" s="4">
-        <v>123.0</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D124" s="6">
-        <v>47.8724638</v>
-      </c>
+      <c r="A124" s="7"/>
     </row>
     <row r="125">
-      <c r="A125" s="4">
-        <v>124.0</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D125" s="6">
-        <v>377.013722</v>
-      </c>
+      <c r="A125" s="7"/>
     </row>
     <row r="126">
-      <c r="A126" s="4">
-        <v>125.0</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D126" s="6">
-        <v>690.247946</v>
-      </c>
+      <c r="A126" s="7"/>
     </row>
     <row r="127">
-      <c r="A127" s="4">
-        <v>126.0</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D127" s="6">
-        <v>110.158909</v>
-      </c>
+      <c r="A127" s="7"/>
     </row>
     <row r="128">
-      <c r="A128" s="4">
-        <v>127.0</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D128" s="6">
-        <v>102.02231</v>
-      </c>
+      <c r="A128" s="7"/>
     </row>
     <row r="129">
-      <c r="A129" s="4">
-        <v>128.0</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D129" s="6">
-        <v>42.534084</v>
-      </c>
+      <c r="A129" s="7"/>
     </row>
     <row r="130">
       <c r="A130" s="7"/>
@@ -4545,300 +4209,6 @@
     </row>
     <row r="831">
       <c r="A831" s="7"/>
-    </row>
-    <row r="832">
-      <c r="A832" s="7"/>
-    </row>
-    <row r="833">
-      <c r="A833" s="7"/>
-    </row>
-    <row r="834">
-      <c r="A834" s="7"/>
-    </row>
-    <row r="835">
-      <c r="A835" s="7"/>
-    </row>
-    <row r="836">
-      <c r="A836" s="7"/>
-    </row>
-    <row r="837">
-      <c r="A837" s="7"/>
-    </row>
-    <row r="838">
-      <c r="A838" s="7"/>
-    </row>
-    <row r="839">
-      <c r="A839" s="7"/>
-    </row>
-    <row r="840">
-      <c r="A840" s="7"/>
-    </row>
-    <row r="841">
-      <c r="A841" s="7"/>
-    </row>
-    <row r="842">
-      <c r="A842" s="7"/>
-    </row>
-    <row r="843">
-      <c r="A843" s="7"/>
-    </row>
-    <row r="844">
-      <c r="A844" s="7"/>
-    </row>
-    <row r="845">
-      <c r="A845" s="7"/>
-    </row>
-    <row r="846">
-      <c r="A846" s="7"/>
-    </row>
-    <row r="847">
-      <c r="A847" s="7"/>
-    </row>
-    <row r="848">
-      <c r="A848" s="7"/>
-    </row>
-    <row r="849">
-      <c r="A849" s="7"/>
-    </row>
-    <row r="850">
-      <c r="A850" s="7"/>
-    </row>
-    <row r="851">
-      <c r="A851" s="7"/>
-    </row>
-    <row r="852">
-      <c r="A852" s="7"/>
-    </row>
-    <row r="853">
-      <c r="A853" s="7"/>
-    </row>
-    <row r="854">
-      <c r="A854" s="7"/>
-    </row>
-    <row r="855">
-      <c r="A855" s="7"/>
-    </row>
-    <row r="856">
-      <c r="A856" s="7"/>
-    </row>
-    <row r="857">
-      <c r="A857" s="7"/>
-    </row>
-    <row r="858">
-      <c r="A858" s="7"/>
-    </row>
-    <row r="859">
-      <c r="A859" s="7"/>
-    </row>
-    <row r="860">
-      <c r="A860" s="7"/>
-    </row>
-    <row r="861">
-      <c r="A861" s="7"/>
-    </row>
-    <row r="862">
-      <c r="A862" s="7"/>
-    </row>
-    <row r="863">
-      <c r="A863" s="7"/>
-    </row>
-    <row r="864">
-      <c r="A864" s="7"/>
-    </row>
-    <row r="865">
-      <c r="A865" s="7"/>
-    </row>
-    <row r="866">
-      <c r="A866" s="7"/>
-    </row>
-    <row r="867">
-      <c r="A867" s="7"/>
-    </row>
-    <row r="868">
-      <c r="A868" s="7"/>
-    </row>
-    <row r="869">
-      <c r="A869" s="7"/>
-    </row>
-    <row r="870">
-      <c r="A870" s="7"/>
-    </row>
-    <row r="871">
-      <c r="A871" s="7"/>
-    </row>
-    <row r="872">
-      <c r="A872" s="7"/>
-    </row>
-    <row r="873">
-      <c r="A873" s="7"/>
-    </row>
-    <row r="874">
-      <c r="A874" s="7"/>
-    </row>
-    <row r="875">
-      <c r="A875" s="7"/>
-    </row>
-    <row r="876">
-      <c r="A876" s="7"/>
-    </row>
-    <row r="877">
-      <c r="A877" s="7"/>
-    </row>
-    <row r="878">
-      <c r="A878" s="7"/>
-    </row>
-    <row r="879">
-      <c r="A879" s="7"/>
-    </row>
-    <row r="880">
-      <c r="A880" s="7"/>
-    </row>
-    <row r="881">
-      <c r="A881" s="7"/>
-    </row>
-    <row r="882">
-      <c r="A882" s="7"/>
-    </row>
-    <row r="883">
-      <c r="A883" s="7"/>
-    </row>
-    <row r="884">
-      <c r="A884" s="7"/>
-    </row>
-    <row r="885">
-      <c r="A885" s="7"/>
-    </row>
-    <row r="886">
-      <c r="A886" s="7"/>
-    </row>
-    <row r="887">
-      <c r="A887" s="7"/>
-    </row>
-    <row r="888">
-      <c r="A888" s="7"/>
-    </row>
-    <row r="889">
-      <c r="A889" s="7"/>
-    </row>
-    <row r="890">
-      <c r="A890" s="7"/>
-    </row>
-    <row r="891">
-      <c r="A891" s="7"/>
-    </row>
-    <row r="892">
-      <c r="A892" s="7"/>
-    </row>
-    <row r="893">
-      <c r="A893" s="7"/>
-    </row>
-    <row r="894">
-      <c r="A894" s="7"/>
-    </row>
-    <row r="895">
-      <c r="A895" s="7"/>
-    </row>
-    <row r="896">
-      <c r="A896" s="7"/>
-    </row>
-    <row r="897">
-      <c r="A897" s="7"/>
-    </row>
-    <row r="898">
-      <c r="A898" s="7"/>
-    </row>
-    <row r="899">
-      <c r="A899" s="7"/>
-    </row>
-    <row r="900">
-      <c r="A900" s="7"/>
-    </row>
-    <row r="901">
-      <c r="A901" s="7"/>
-    </row>
-    <row r="902">
-      <c r="A902" s="7"/>
-    </row>
-    <row r="903">
-      <c r="A903" s="7"/>
-    </row>
-    <row r="904">
-      <c r="A904" s="7"/>
-    </row>
-    <row r="905">
-      <c r="A905" s="7"/>
-    </row>
-    <row r="906">
-      <c r="A906" s="7"/>
-    </row>
-    <row r="907">
-      <c r="A907" s="7"/>
-    </row>
-    <row r="908">
-      <c r="A908" s="7"/>
-    </row>
-    <row r="909">
-      <c r="A909" s="7"/>
-    </row>
-    <row r="910">
-      <c r="A910" s="7"/>
-    </row>
-    <row r="911">
-      <c r="A911" s="7"/>
-    </row>
-    <row r="912">
-      <c r="A912" s="7"/>
-    </row>
-    <row r="913">
-      <c r="A913" s="7"/>
-    </row>
-    <row r="914">
-      <c r="A914" s="7"/>
-    </row>
-    <row r="915">
-      <c r="A915" s="7"/>
-    </row>
-    <row r="916">
-      <c r="A916" s="7"/>
-    </row>
-    <row r="917">
-      <c r="A917" s="7"/>
-    </row>
-    <row r="918">
-      <c r="A918" s="7"/>
-    </row>
-    <row r="919">
-      <c r="A919" s="7"/>
-    </row>
-    <row r="920">
-      <c r="A920" s="7"/>
-    </row>
-    <row r="921">
-      <c r="A921" s="7"/>
-    </row>
-    <row r="922">
-      <c r="A922" s="7"/>
-    </row>
-    <row r="923">
-      <c r="A923" s="7"/>
-    </row>
-    <row r="924">
-      <c r="A924" s="7"/>
-    </row>
-    <row r="925">
-      <c r="A925" s="7"/>
-    </row>
-    <row r="926">
-      <c r="A926" s="7"/>
-    </row>
-    <row r="927">
-      <c r="A927" s="7"/>
-    </row>
-    <row r="928">
-      <c r="A928" s="7"/>
-    </row>
-    <row r="929">
-      <c r="A929" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
